--- a/COMPONENTES GUANTE.xlsx
+++ b/COMPONENTES GUANTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OneScreen\Desktop\MAGIC-GLOVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E6FA95-BF6F-43DA-B6F1-C6270349344B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9240E8C4-DF0B-473B-838B-94AD32F9B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>COMPONENTE</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Jack power</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t>Madera mdf de 3 mm</t>
+  </si>
+  <si>
+    <t>No aplica</t>
   </si>
 </sst>
 </file>
@@ -98,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,14 +150,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,14 +252,19 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -478,7 +484,7 @@
   <dimension ref="B1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -637,24 +643,34 @@
       <c r="F8" s="9">
         <v>1000</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="8">
         <f>SUM(E3:E9)</f>
         <v>77000</v>
@@ -664,9 +680,6 @@
         <v>90800</v>
       </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1">
-      <c r="G12" s="14"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
